--- a/Assets/MyAssets/doc/problems/problem_list.xlsx
+++ b/Assets/MyAssets/doc/problems/problem_list.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="list" sheetId="2" r:id="rId1"/>
+    <sheet name="problem" sheetId="2" r:id="rId1"/>
+    <sheet name="plan" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>旋转机制改为在旋转的时候不受重力</t>
   </si>
@@ -80,6 +81,42 @@
   </si>
   <si>
     <t>多次点击不会重复伸出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机改为对于关卡定点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景点击散开机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色保留机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市场景重画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">探讨可能性 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景边缘改回渐变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,8 +190,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,15 +209,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,10 +655,34 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -694,4 +759,49 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/MyAssets/doc/problems/problem_list.xlsx
+++ b/Assets/MyAssets/doc/problems/problem_list.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="problem" sheetId="2" r:id="rId1"/>
     <sheet name="plan" sheetId="4" r:id="rId2"/>
+    <sheet name="吐槽" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>旋转机制改为在旋转的时候不受重力</t>
   </si>
@@ -117,6 +118,58 @@
   </si>
   <si>
     <t>场景边缘改回渐变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景要不要这么平淡无奇啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂鸦要不要不是圈就是叉这么没创意啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个奇怪的硬币是怎么回事啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个出口标志全是涂鸦是什么情况啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的那个鼠标标志完全看不清楚啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标点击的墨迹好尼玛难看啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手伸出去变成world,手脱离身体transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手偶尔会旋转问题修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,9 +264,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -555,7 +614,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -583,105 +642,105 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6" spans="1:6" s="3" customFormat="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7" spans="1:6" s="1" customFormat="1">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -694,10 +753,28 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,4 +881,60 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>